--- a/bill docs/22SNCJO-373/RAR_8/checklist.xlsx
+++ b/bill docs/22SNCJO-373/RAR_8/checklist.xlsx
@@ -22602,7 +22602,7 @@
     <row r="5" ht="15" customHeight="1" s="369">
       <c r="A5" s="554" t="inlineStr">
         <is>
-          <t>RAR/FINAL BILL   :23RAR-14532,Dt: 03-10-2024;Invoice No- STPL/HAL/ED/07,Dt: 03-10-2024 (RAR-8)</t>
+          <t>RAR/FINAL BILL   :23RAR-14532,Dt: 04-04-2024;Invoice No- STPL/HAL/ED/07,Dt: 04-04-2024 (RAR-8)</t>
         </is>
       </c>
       <c r="B5" s="317" t="n"/>
